--- a/biology/Botanique/Jules_Morière/Jules_Morière.xlsx
+++ b/biology/Botanique/Jules_Morière/Jules_Morière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jules_Mori%C3%A8re</t>
+          <t>Jules_Morière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Morière, né Pierre-Gilles Morière le 8 avril 1817 à Cormelles-le-Royal et mort le 19 octobre 1888 à Paris, est un naturaliste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jules_Mori%C3%A8re</t>
+          <t>Jules_Morière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Morière nait en 1817 à Cormelles-le-Royal, petit village au sud de Caen (aujourd'hui dans l'agglomération caennaise). Il est issu d’une famille modeste d’agriculteurs. Son père, Pierre François Morière, était originaire de Saint-Loyer-des-Champs dans l'Orne et sa mère, Victoire Marie Sophie Dupont, de Landes-sur-Ajon dans le Calvados[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Morière nait en 1817 à Cormelles-le-Royal, petit village au sud de Caen (aujourd'hui dans l'agglomération caennaise). Il est issu d’une famille modeste d’agriculteurs. Son père, Pierre François Morière, était originaire de Saint-Loyer-des-Champs dans l'Orne et sa mère, Victoire Marie Sophie Dupont, de Landes-sur-Ajon dans le Calvados. 
 Il commence sa carrière d’enseignement à l’âge de dix-neuf ans comme instituteur à Condé-sur-Noireau et l’année
-suivante, en 1837, il obtint un poste de professeur aux cours spéciaux du lycée de Caen (actuel lycée Malherbe). Il décroche successivement ses grades de bachelier ès sciences mathématiques et physiques, de licencié ès sciences naturelles et de docteur ès sciences avant d’être nommé directeur des cours spéciaux du Lycée de Caen en 1848[1]. Il obtient son diplôme de docteur ès sciences naturelles avec une thèse de botanique intitulée Considérations générales sur l'espèce. Influence du climat, du sol, de la culture et de l'hybridité sur les plantes. Étude spéciale du sol végétal. et une thèse de géologie et de minéralogie intitulée I. Note sur un gisement de baryte sulfatée que j'ai découvert à Laize-la-Ville (Calvados), le 8 juin 1848. II. Note sur un cas remarquable de production de sulfate de chaux naturel. III. Note sur un dépôt de grès situé dans la commune de Sainte-Opportune (Orne). IV. Découverte du genre Ammonite dans la pierre blanche de Langrune. V. Note sur un grès marin en voie de formation sur les côtes du Calvados. VI. Fragment d'une esquisse des falaises du Calvados. imprimée à Paris chez Firmin-Didot frères en 1859. Par un  arrêté du 10 mai 1859, il est chargé des cours de  botanique, géologie et minéralogie à la Faculté des Sciences de Caen. Il devint titulaire de la chaire par décret du 15 juillet 1861. Il est nommé doyen de la Faculté le 24 décembre 1879. Après la scission de sa chaire en janvier 1883, il conserve la partie dédiée à la botanique. Il est admis à faire valoir ses droits à la retraite à partir du 1 er novembre 1887[1].
-Il très impliqué dans les nombreuses sociétés savantes de Caen. Il est admis en 1840 membre de la Société linnéenne de Normandie dont il fut le vice-président en 1848 et en 1861-1862, président en 1849 et en 1862-1863, secrétaire adjoint de 1850 à 1867 et secrétaire de 1868 à 1889. Il est également nommé secrétaire général de l’Association normande entre 1849 à 1880. Il entre en 1851 à la Société d'agriculture et de commerce de Caen dont il est le président entre 1883 et 1887[1]. 
-Promoteur des progrès de l’agriculture, il est nommé chevalier de la Légion d'honneur par le ministre de l’Agriculture le 8 août 1867 et élevé au grade d'officier le 30 décembre 1887[1].
+suivante, en 1837, il obtint un poste de professeur aux cours spéciaux du lycée de Caen (actuel lycée Malherbe). Il décroche successivement ses grades de bachelier ès sciences mathématiques et physiques, de licencié ès sciences naturelles et de docteur ès sciences avant d’être nommé directeur des cours spéciaux du Lycée de Caen en 1848. Il obtient son diplôme de docteur ès sciences naturelles avec une thèse de botanique intitulée Considérations générales sur l'espèce. Influence du climat, du sol, de la culture et de l'hybridité sur les plantes. Étude spéciale du sol végétal. et une thèse de géologie et de minéralogie intitulée I. Note sur un gisement de baryte sulfatée que j'ai découvert à Laize-la-Ville (Calvados), le 8 juin 1848. II. Note sur un cas remarquable de production de sulfate de chaux naturel. III. Note sur un dépôt de grès situé dans la commune de Sainte-Opportune (Orne). IV. Découverte du genre Ammonite dans la pierre blanche de Langrune. V. Note sur un grès marin en voie de formation sur les côtes du Calvados. VI. Fragment d'une esquisse des falaises du Calvados. imprimée à Paris chez Firmin-Didot frères en 1859. Par un  arrêté du 10 mai 1859, il est chargé des cours de  botanique, géologie et minéralogie à la Faculté des Sciences de Caen. Il devint titulaire de la chaire par décret du 15 juillet 1861. Il est nommé doyen de la Faculté le 24 décembre 1879. Après la scission de sa chaire en janvier 1883, il conserve la partie dédiée à la botanique. Il est admis à faire valoir ses droits à la retraite à partir du 1 er novembre 1887.
+Il très impliqué dans les nombreuses sociétés savantes de Caen. Il est admis en 1840 membre de la Société linnéenne de Normandie dont il fut le vice-président en 1848 et en 1861-1862, président en 1849 et en 1862-1863, secrétaire adjoint de 1850 à 1867 et secrétaire de 1868 à 1889. Il est également nommé secrétaire général de l’Association normande entre 1849 à 1880. Il entre en 1851 à la Société d'agriculture et de commerce de Caen dont il est le président entre 1883 et 1887. 
+Promoteur des progrès de l’agriculture, il est nommé chevalier de la Légion d'honneur par le ministre de l’Agriculture le 8 août 1867 et élevé au grade d'officier le 30 décembre 1887.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jules_Mori%C3%A8re</t>
+          <t>Jules_Morière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Conservation du colza en meules d'après la méthode flamande, Caen, Delos, 1854
 Considérations générales sur la flore fossile et spécialement sur celle du lias. Découverte du genre Lomatopteris dans le grès liasique de Sainte-Honorine-la-Guillaume (Orne) , Caen, F. Le Blanc-Hardel, 1880
